--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.030221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.030221.xlsx_with_dialog_acts.xlsx
@@ -1457,12 +1457,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1537,12 +1537,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1743,12 +1743,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1895,12 +1895,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2063,12 +2063,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2711,12 +2711,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2905,12 +2905,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3275,12 +3275,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3351,12 +3351,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4323,12 +4323,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4407,12 +4407,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4449,12 +4449,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4491,12 +4491,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4807,12 +4807,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5123,12 +5123,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5165,12 +5165,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5329,12 +5329,12 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6533,12 +6533,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6647,12 +6647,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6997,12 +6997,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7039,12 +7039,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7153,12 +7153,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7229,12 +7229,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7717,12 +7717,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9307,12 +9307,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9433,12 +9433,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9887,12 +9887,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10317,12 +10317,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10511,12 +10511,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10679,12 +10679,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11433,12 +11433,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11555,12 +11555,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11597,12 +11597,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12165,12 +12165,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12317,12 +12317,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12439,12 +12439,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12523,12 +12523,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12649,12 +12649,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12775,12 +12775,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13083,12 +13083,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13163,12 +13163,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13205,12 +13205,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13247,12 +13247,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13521,12 +13521,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13685,12 +13685,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13993,12 +13993,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14153,12 +14153,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14309,12 +14309,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14393,12 +14393,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14435,12 +14435,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14515,12 +14515,12 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14591,12 +14591,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14743,12 +14743,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14781,12 +14781,12 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14987,12 +14987,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15757,12 +15757,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15955,12 +15955,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16351,12 +16351,12 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16843,12 +16843,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16885,12 +16885,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17011,12 +17011,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17053,12 +17053,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17381,12 +17381,12 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17419,12 +17419,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17579,12 +17579,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17811,12 +17811,12 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18309,12 +18309,12 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18537,12 +18537,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19637,12 +19637,12 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19923,12 +19923,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20151,12 +20151,12 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20273,12 +20273,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20479,12 +20479,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20905,12 +20905,12 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21221,12 +21221,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21259,12 +21259,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21335,12 +21335,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21537,12 +21537,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21579,12 +21579,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21953,12 +21953,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22323,12 +22323,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22407,12 +22407,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22491,12 +22491,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22533,12 +22533,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22575,12 +22575,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22781,12 +22781,12 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23235,12 +23235,12 @@
       <c r="H569" t="inlineStr"/>
       <c r="I569" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23277,12 +23277,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23361,12 +23361,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23403,12 +23403,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23529,12 +23529,12 @@
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23567,12 +23567,12 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23651,12 +23651,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23769,12 +23769,12 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23937,12 +23937,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23979,12 +23979,12 @@
       <c r="H587" t="inlineStr"/>
       <c r="I587" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24063,12 +24063,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24105,12 +24105,12 @@
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24399,12 +24399,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24441,12 +24441,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24651,12 +24651,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24693,12 +24693,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24819,12 +24819,12 @@
       <c r="H607" t="inlineStr"/>
       <c r="I607" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25565,12 +25565,12 @@
       <c r="H626" t="inlineStr"/>
       <c r="I626" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26105,12 +26105,12 @@
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26265,12 +26265,12 @@
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26559,12 +26559,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26765,12 +26765,12 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27111,12 +27111,12 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27343,12 +27343,12 @@
       <c r="H671" t="inlineStr"/>
       <c r="I671" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27381,12 +27381,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27419,12 +27419,12 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27651,12 +27651,12 @@
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27689,12 +27689,12 @@
       <c r="H680" t="inlineStr"/>
       <c r="I680" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27841,12 +27841,12 @@
       <c r="H684" t="inlineStr"/>
       <c r="I684" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28119,12 +28119,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28317,12 +28317,12 @@
       <c r="H696" t="inlineStr"/>
       <c r="I696" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28645,12 +28645,12 @@
       <c r="H704" t="inlineStr"/>
       <c r="I704" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28759,12 +28759,12 @@
       <c r="H707" t="inlineStr"/>
       <c r="I707" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29063,12 +29063,12 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29391,12 +29391,12 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29961,12 +29961,12 @@
       <c r="H738" t="inlineStr"/>
       <c r="I738" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30265,12 +30265,12 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30539,12 +30539,12 @@
       <c r="H753" t="inlineStr"/>
       <c r="I753" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30805,12 +30805,12 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30843,12 +30843,12 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30927,12 +30927,12 @@
       <c r="H763" t="inlineStr"/>
       <c r="I763" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31045,12 +31045,12 @@
       <c r="H766" t="inlineStr"/>
       <c r="I766" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31159,12 +31159,12 @@
       <c r="H769" t="inlineStr"/>
       <c r="I769" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31809,12 +31809,12 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31923,12 +31923,12 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32075,12 +32075,12 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32821,12 +32821,12 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33087,12 +33087,12 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33669,12 +33669,12 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33825,12 +33825,12 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33863,12 +33863,12 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33901,12 +33901,12 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34095,12 +34095,12 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34133,12 +34133,12 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34209,12 +34209,12 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34247,12 +34247,12 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34285,12 +34285,12 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34993,12 +34993,12 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -35221,12 +35221,12 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35727,12 +35727,12 @@
       <c r="H887" t="inlineStr"/>
       <c r="I887" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35769,12 +35769,12 @@
       <c r="H888" t="inlineStr"/>
       <c r="I888" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35811,12 +35811,12 @@
       <c r="H889" t="inlineStr"/>
       <c r="I889" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36185,12 +36185,12 @@
       <c r="H898" t="inlineStr"/>
       <c r="I898" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36311,12 +36311,12 @@
       <c r="H901" t="inlineStr"/>
       <c r="I901" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36437,12 +36437,12 @@
       <c r="H904" t="inlineStr"/>
       <c r="I904" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37515,12 +37515,12 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37637,12 +37637,12 @@
       <c r="H934" t="inlineStr"/>
       <c r="I934" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37721,12 +37721,12 @@
       <c r="H936" t="inlineStr"/>
       <c r="I936" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37763,12 +37763,12 @@
       <c r="H937" t="inlineStr"/>
       <c r="I937" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37931,12 +37931,12 @@
       <c r="H941" t="inlineStr"/>
       <c r="I941" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38381,12 +38381,12 @@
       <c r="H952" t="inlineStr"/>
       <c r="I952" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38423,12 +38423,12 @@
       <c r="H953" t="inlineStr"/>
       <c r="I953" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38591,12 +38591,12 @@
       <c r="H957" t="inlineStr"/>
       <c r="I957" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38633,12 +38633,12 @@
       <c r="H958" t="inlineStr"/>
       <c r="I958" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38675,12 +38675,12 @@
       <c r="H959" t="inlineStr"/>
       <c r="I959" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38827,12 +38827,12 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38953,12 +38953,12 @@
       <c r="H966" t="inlineStr"/>
       <c r="I966" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38995,12 +38995,12 @@
       <c r="H967" t="inlineStr"/>
       <c r="I967" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J967" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39345,12 +39345,12 @@
       <c r="H976" t="inlineStr"/>
       <c r="I976" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -40531,12 +40531,12 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -41257,12 +41257,12 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41707,12 +41707,12 @@
       <c r="H1037" t="inlineStr"/>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41791,12 +41791,12 @@
       <c r="H1039" t="inlineStr"/>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1039" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41833,12 +41833,12 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41985,12 +41985,12 @@
       <c r="H1044" t="inlineStr"/>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1044" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -42137,12 +42137,12 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -42213,12 +42213,12 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42339,12 +42339,12 @@
       <c r="H1053" t="inlineStr"/>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -42465,12 +42465,12 @@
       <c r="H1056" t="inlineStr"/>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -42549,12 +42549,12 @@
       <c r="H1058" t="inlineStr"/>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43021,12 +43021,12 @@
       <c r="H1070" t="inlineStr"/>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -43405,12 +43405,12 @@
       <c r="H1080" t="inlineStr"/>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1080" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -43637,12 +43637,12 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -43865,12 +43865,12 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1092" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44139,12 +44139,12 @@
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1099" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
